--- a/suppliers.xlsx
+++ b/suppliers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\githubfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82913FE-F6EF-4A88-8F53-8EB3647A24F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06E32AA7-7EA8-4D98-8236-AC85AC78F07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{366633EA-82ED-43D1-9393-BA34678353D1}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{366633EA-82ED-43D1-9393-BA34678353D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>name</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>phone</t>
+  </si>
+  <si>
+    <t>MADI INTERNATIONNAL</t>
   </si>
 </sst>
 </file>
@@ -395,16 +398,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4629187C-B87A-4A0C-AE7E-CD7F95E68124}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -421,6 +425,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>5005001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
